--- a/statistiche/RandomForestCounterfactuals/KT.xlsx
+++ b/statistiche/RandomForestCounterfactuals/KT.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,25 +755,25 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>1</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,25 +1023,25 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1050,22 +1050,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>1</v>
@@ -1120,22 +1120,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1157,49 +1157,49 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>1</v>
@@ -1254,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>1</v>
@@ -1324,22 +1324,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1397,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1495,13 +1495,13 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1522,22 +1522,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>1</v>
@@ -1592,22 +1592,22 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
@@ -1726,22 +1726,22 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
@@ -1763,10 +1763,10 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1778,34 +1778,34 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>1</v>
@@ -1860,22 +1860,22 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1924,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>1</v>
@@ -1994,22 +1994,22 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
@@ -2031,13 +2031,13 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2058,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2101,13 +2101,13 @@
         <v>13</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>1</v>
@@ -2125,25 +2125,25 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
